--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptn-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,10 @@
     <t>Ptprb</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H2">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I2">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J2">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>130.920977529944</v>
+        <v>146.5291443333333</v>
       </c>
       <c r="N2">
-        <v>130.920977529944</v>
+        <v>439.587433</v>
       </c>
       <c r="O2">
-        <v>0.9899088201946551</v>
+        <v>0.9876486023666144</v>
       </c>
       <c r="P2">
-        <v>0.9899088201946551</v>
+        <v>0.9876486023666142</v>
       </c>
       <c r="Q2">
-        <v>34.68127947627994</v>
+        <v>92.40586966312244</v>
       </c>
       <c r="R2">
-        <v>34.68127947627994</v>
+        <v>831.6528269681021</v>
       </c>
       <c r="S2">
-        <v>0.02368619072164962</v>
+        <v>0.04693807243794185</v>
       </c>
       <c r="T2">
-        <v>0.02368619072164962</v>
+        <v>0.04693807243794184</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H3">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I3">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J3">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.217249253378123</v>
+        <v>0.2506956666666667</v>
       </c>
       <c r="N3">
-        <v>0.217249253378123</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O3">
-        <v>0.001642647008578286</v>
+        <v>0.001689760940932313</v>
       </c>
       <c r="P3">
-        <v>0.001642647008578286</v>
+        <v>0.001689760940932312</v>
       </c>
       <c r="Q3">
-        <v>0.05754984582739283</v>
+        <v>0.1580965425308889</v>
       </c>
       <c r="R3">
-        <v>0.05754984582739283</v>
+        <v>1.422868882778</v>
       </c>
       <c r="S3">
-        <v>3.930468093604988E-05</v>
+        <v>8.030601294654019E-05</v>
       </c>
       <c r="T3">
-        <v>3.930468093604988E-05</v>
+        <v>8.030601294654019E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H4">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I4">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J4">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.413421698627415</v>
+        <v>0.04295533333333334</v>
       </c>
       <c r="N4">
-        <v>0.413421698627415</v>
+        <v>0.128866</v>
       </c>
       <c r="O4">
-        <v>0.003125929806302675</v>
+        <v>0.0002895313087637247</v>
       </c>
       <c r="P4">
-        <v>0.003125929806302675</v>
+        <v>0.0002895313087637246</v>
       </c>
       <c r="Q4">
-        <v>0.1095163948678614</v>
+        <v>0.02708897913377778</v>
       </c>
       <c r="R4">
-        <v>0.1095163948678614</v>
+        <v>0.243800812204</v>
       </c>
       <c r="S4">
-        <v>7.479615098289048E-05</v>
+        <v>1.375999673491079E-05</v>
       </c>
       <c r="T4">
-        <v>7.479615098289048E-05</v>
+        <v>1.375999673491079E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.264902387154478</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H5">
-        <v>0.264902387154478</v>
+        <v>1.891894</v>
       </c>
       <c r="I5">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J5">
-        <v>0.0239276489293145</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.703944012114477</v>
+        <v>0.04638100000000001</v>
       </c>
       <c r="N5">
-        <v>0.703944012114477</v>
+        <v>0.139143</v>
       </c>
       <c r="O5">
-        <v>0.005322602990463877</v>
+        <v>0.0003126212879682069</v>
       </c>
       <c r="P5">
-        <v>0.005322602990463877</v>
+        <v>0.0003126212879682068</v>
       </c>
       <c r="Q5">
-        <v>0.1864764492322257</v>
+        <v>0.02924931187133334</v>
       </c>
       <c r="R5">
-        <v>0.1864764492322257</v>
+        <v>0.263243806842</v>
       </c>
       <c r="S5">
-        <v>0.0001273573757459391</v>
+        <v>1.485734969414501E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001273573757459391</v>
+        <v>1.485734969414501E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.44825706155695</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H6">
-        <v>6.44825706155695</v>
+        <v>1.891894</v>
       </c>
       <c r="I6">
-        <v>0.5824471150761377</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J6">
-        <v>0.5824471150761377</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>130.920977529944</v>
+        <v>0.517643</v>
       </c>
       <c r="N6">
-        <v>130.920977529944</v>
+        <v>1.552929</v>
       </c>
       <c r="O6">
-        <v>0.9899088201946551</v>
+        <v>0.003489062792258176</v>
       </c>
       <c r="P6">
-        <v>0.9899088201946551</v>
+        <v>0.003489062792258176</v>
       </c>
       <c r="Q6">
-        <v>844.2121178634001</v>
+        <v>0.3264418952806666</v>
       </c>
       <c r="R6">
-        <v>844.2121178634001</v>
+        <v>2.937977057526</v>
       </c>
       <c r="S6">
-        <v>0.5765695365107999</v>
+        <v>0.0001658179657128201</v>
       </c>
       <c r="T6">
-        <v>0.5765695365107999</v>
+        <v>0.0001658179657128201</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.44825706155695</v>
+        <v>0.6306313333333333</v>
       </c>
       <c r="H7">
-        <v>6.44825706155695</v>
+        <v>1.891894</v>
       </c>
       <c r="I7">
-        <v>0.5824471150761377</v>
+        <v>0.04752507351852503</v>
       </c>
       <c r="J7">
-        <v>0.5824471150761377</v>
+        <v>0.04752507351852504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.217249253378123</v>
+        <v>0.9747983333333333</v>
       </c>
       <c r="N7">
-        <v>0.217249253378123</v>
+        <v>2.924395</v>
       </c>
       <c r="O7">
-        <v>0.001642647008578286</v>
+        <v>0.00657042130346323</v>
       </c>
       <c r="P7">
-        <v>0.001642647008578286</v>
+        <v>0.006570421303463229</v>
       </c>
       <c r="Q7">
-        <v>1.400879032213457</v>
+        <v>0.6147383726811111</v>
       </c>
       <c r="R7">
-        <v>1.400879032213457</v>
+        <v>5.53264535413</v>
       </c>
       <c r="S7">
-        <v>0.00095675501123487</v>
+        <v>0.0003122597554947731</v>
       </c>
       <c r="T7">
-        <v>0.00095675501123487</v>
+        <v>0.0003122597554947731</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H8">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I8">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J8">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.413421698627415</v>
+        <v>146.5291443333333</v>
       </c>
       <c r="N8">
-        <v>0.413421698627415</v>
+        <v>439.587433</v>
       </c>
       <c r="O8">
-        <v>0.003125929806302675</v>
+        <v>0.9876486023666144</v>
       </c>
       <c r="P8">
-        <v>0.003125929806302675</v>
+        <v>0.9876486023666142</v>
       </c>
       <c r="Q8">
-        <v>2.665849387575098</v>
+        <v>951.8013037430951</v>
       </c>
       <c r="R8">
-        <v>2.665849387575098</v>
+        <v>8566.211733687856</v>
       </c>
       <c r="S8">
-        <v>0.001820688797611503</v>
+        <v>0.4834727350599264</v>
       </c>
       <c r="T8">
-        <v>0.001820688797611503</v>
+        <v>0.4834727350599264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1053 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.44825706155695</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H9">
-        <v>6.44825706155695</v>
+        <v>19.486935</v>
       </c>
       <c r="I9">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J9">
-        <v>0.5824471150761377</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.703944012114477</v>
+        <v>0.2506956666666667</v>
       </c>
       <c r="N9">
-        <v>0.703944012114477</v>
+        <v>0.7520870000000001</v>
       </c>
       <c r="O9">
-        <v>0.005322602990463877</v>
+        <v>0.001689760940932313</v>
       </c>
       <c r="P9">
-        <v>0.005322602990463877</v>
+        <v>0.001689760940932312</v>
       </c>
       <c r="Q9">
-        <v>4.539211947057908</v>
+        <v>1.628430053705</v>
       </c>
       <c r="R9">
-        <v>4.539211947057908</v>
+        <v>14.655870483345</v>
       </c>
       <c r="S9">
-        <v>0.003100134756491308</v>
+        <v>0.0008271700499068063</v>
       </c>
       <c r="T9">
-        <v>0.003100134756491308</v>
+        <v>0.0008271700499068062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.3578148846648</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H10">
-        <v>4.3578148846648</v>
+        <v>19.486935</v>
       </c>
       <c r="I10">
-        <v>0.3936252359945479</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J10">
-        <v>0.3936252359945479</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>130.920977529944</v>
+        <v>0.04295533333333334</v>
       </c>
       <c r="N10">
-        <v>130.920977529944</v>
+        <v>0.128866</v>
       </c>
       <c r="O10">
-        <v>0.9899088201946551</v>
+        <v>0.0002895313087637247</v>
       </c>
       <c r="P10">
-        <v>0.9899088201946551</v>
+        <v>0.0002895313087637246</v>
       </c>
       <c r="Q10">
-        <v>570.5293845948559</v>
+        <v>0.2790225961900001</v>
       </c>
       <c r="R10">
-        <v>570.5293845948559</v>
+        <v>2.511203365710001</v>
       </c>
       <c r="S10">
-        <v>0.3896530929622056</v>
+        <v>0.000141731070542757</v>
       </c>
       <c r="T10">
-        <v>0.3896530929622056</v>
+        <v>0.000141731070542757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.3578148846648</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H11">
-        <v>4.3578148846648</v>
+        <v>19.486935</v>
       </c>
       <c r="I11">
-        <v>0.3936252359945479</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J11">
-        <v>0.3936252359945479</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.217249253378123</v>
+        <v>0.04638100000000001</v>
       </c>
       <c r="N11">
-        <v>0.217249253378123</v>
+        <v>0.139143</v>
       </c>
       <c r="O11">
-        <v>0.001642647008578286</v>
+        <v>0.0003126212879682069</v>
       </c>
       <c r="P11">
-        <v>0.001642647008578286</v>
+        <v>0.0003126212879682068</v>
       </c>
       <c r="Q11">
-        <v>0.9467320300534992</v>
+        <v>0.3012745107450001</v>
       </c>
       <c r="R11">
-        <v>0.9467320300534992</v>
+        <v>2.711470596705001</v>
       </c>
       <c r="S11">
-        <v>0.0006465873164073658</v>
+        <v>0.0001530340535791508</v>
       </c>
       <c r="T11">
-        <v>0.0006465873164073658</v>
+        <v>0.0001530340535791507</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.3578148846648</v>
+        <v>6.495645000000001</v>
       </c>
       <c r="H12">
-        <v>4.3578148846648</v>
+        <v>19.486935</v>
       </c>
       <c r="I12">
-        <v>0.3936252359945479</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="J12">
-        <v>0.3936252359945479</v>
+        <v>0.4895189786138752</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.413421698627415</v>
+        <v>0.517643</v>
       </c>
       <c r="N12">
-        <v>0.413421698627415</v>
+        <v>1.552929</v>
       </c>
       <c r="O12">
-        <v>0.003125929806302675</v>
+        <v>0.003489062792258176</v>
       </c>
       <c r="P12">
-        <v>0.003125929806302675</v>
+        <v>0.003489062792258176</v>
       </c>
       <c r="Q12">
-        <v>1.801615231921954</v>
+        <v>3.362425164735</v>
       </c>
       <c r="R12">
-        <v>1.801615231921954</v>
+        <v>30.261826482615</v>
       </c>
       <c r="S12">
-        <v>0.001230444857708282</v>
+        <v>0.001707962454385898</v>
       </c>
       <c r="T12">
-        <v>0.001230444857708282</v>
+        <v>0.001707962454385898</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>6.495645000000001</v>
+      </c>
+      <c r="H13">
+        <v>19.486935</v>
+      </c>
+      <c r="I13">
+        <v>0.4895189786138752</v>
+      </c>
+      <c r="J13">
+        <v>0.4895189786138752</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9747983333333333</v>
+      </c>
+      <c r="N13">
+        <v>2.924395</v>
+      </c>
+      <c r="O13">
+        <v>0.00657042130346323</v>
+      </c>
+      <c r="P13">
+        <v>0.006570421303463229</v>
+      </c>
+      <c r="Q13">
+        <v>6.331943919925</v>
+      </c>
+      <c r="R13">
+        <v>56.98749527932501</v>
+      </c>
+      <c r="S13">
+        <v>0.003216345925534167</v>
+      </c>
+      <c r="T13">
+        <v>0.003216345925534167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.024707</v>
+      </c>
+      <c r="H14">
+        <v>0.07412100000000001</v>
+      </c>
+      <c r="I14">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="J14">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>146.5291443333333</v>
+      </c>
+      <c r="N14">
+        <v>439.587433</v>
+      </c>
+      <c r="O14">
+        <v>0.9876486023666144</v>
+      </c>
+      <c r="P14">
+        <v>0.9876486023666142</v>
+      </c>
+      <c r="Q14">
+        <v>3.620295569043667</v>
+      </c>
+      <c r="R14">
+        <v>32.582660121393</v>
+      </c>
+      <c r="S14">
+        <v>0.00183894915210508</v>
+      </c>
+      <c r="T14">
+        <v>0.001838949152105079</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.024707</v>
+      </c>
+      <c r="H15">
+        <v>0.07412100000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="J15">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2506956666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.7520870000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.001689760940932313</v>
+      </c>
+      <c r="P15">
+        <v>0.001689760940932312</v>
+      </c>
+      <c r="Q15">
+        <v>0.006193937836333335</v>
+      </c>
+      <c r="R15">
+        <v>0.05574544052700001</v>
+      </c>
+      <c r="S15">
+        <v>3.146244972292584E-06</v>
+      </c>
+      <c r="T15">
+        <v>3.146244972292584E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.024707</v>
+      </c>
+      <c r="H16">
+        <v>0.07412100000000001</v>
+      </c>
+      <c r="I16">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="J16">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.04295533333333334</v>
+      </c>
+      <c r="N16">
+        <v>0.128866</v>
+      </c>
+      <c r="O16">
+        <v>0.0002895313087637247</v>
+      </c>
+      <c r="P16">
+        <v>0.0002895313087637246</v>
+      </c>
+      <c r="Q16">
+        <v>0.001061297420666667</v>
+      </c>
+      <c r="R16">
+        <v>0.009551676786000001</v>
+      </c>
+      <c r="S16">
+        <v>5.390918930914325E-07</v>
+      </c>
+      <c r="T16">
+        <v>5.390918930914324E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.024707</v>
+      </c>
+      <c r="H17">
+        <v>0.07412100000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="J17">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.04638100000000001</v>
+      </c>
+      <c r="N17">
+        <v>0.139143</v>
+      </c>
+      <c r="O17">
+        <v>0.0003126212879682069</v>
+      </c>
+      <c r="P17">
+        <v>0.0003126212879682068</v>
+      </c>
+      <c r="Q17">
+        <v>0.001145935367</v>
+      </c>
+      <c r="R17">
+        <v>0.010313418303</v>
+      </c>
+      <c r="S17">
+        <v>5.820842059225955E-07</v>
+      </c>
+      <c r="T17">
+        <v>5.820842059225954E-07</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.024707</v>
+      </c>
+      <c r="H18">
+        <v>0.07412100000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="J18">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.517643</v>
+      </c>
+      <c r="N18">
+        <v>1.552929</v>
+      </c>
+      <c r="O18">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="P18">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="Q18">
+        <v>0.012789405601</v>
+      </c>
+      <c r="R18">
+        <v>0.115104650409</v>
+      </c>
+      <c r="S18">
+        <v>6.496449291873613E-06</v>
+      </c>
+      <c r="T18">
+        <v>6.496449291873612E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.024707</v>
+      </c>
+      <c r="H19">
+        <v>0.07412100000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="J19">
+        <v>0.001861946797371626</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9747983333333333</v>
+      </c>
+      <c r="N19">
+        <v>2.924395</v>
+      </c>
+      <c r="O19">
+        <v>0.00657042130346323</v>
+      </c>
+      <c r="P19">
+        <v>0.006570421303463229</v>
+      </c>
+      <c r="Q19">
+        <v>0.02408434242166667</v>
+      </c>
+      <c r="R19">
+        <v>0.216759081795</v>
+      </c>
+      <c r="S19">
+        <v>1.223377490336566E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.223377490336566E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H20">
+        <v>18.355384</v>
+      </c>
+      <c r="I20">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J20">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>146.5291443333333</v>
+      </c>
+      <c r="N20">
+        <v>439.587433</v>
+      </c>
+      <c r="O20">
+        <v>0.9876486023666144</v>
+      </c>
+      <c r="P20">
+        <v>0.9876486023666142</v>
+      </c>
+      <c r="Q20">
+        <v>896.5329038099192</v>
+      </c>
+      <c r="R20">
+        <v>8068.796134289273</v>
+      </c>
+      <c r="S20">
+        <v>0.455398845716641</v>
+      </c>
+      <c r="T20">
+        <v>0.455398845716641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H21">
+        <v>18.355384</v>
+      </c>
+      <c r="I21">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J21">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.2506956666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.7520870000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.001689760940932313</v>
+      </c>
+      <c r="P21">
+        <v>0.001689760940932312</v>
+      </c>
+      <c r="Q21">
+        <v>1.533871742934222</v>
+      </c>
+      <c r="R21">
+        <v>13.804845686408</v>
+      </c>
+      <c r="S21">
+        <v>0.0007791386331066734</v>
+      </c>
+      <c r="T21">
+        <v>0.0007791386331066733</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H22">
+        <v>18.355384</v>
+      </c>
+      <c r="I22">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J22">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.04295533333333334</v>
+      </c>
+      <c r="N22">
+        <v>0.128866</v>
+      </c>
+      <c r="O22">
+        <v>0.0002895313087637247</v>
+      </c>
+      <c r="P22">
+        <v>0.0002895313087637246</v>
+      </c>
+      <c r="Q22">
+        <v>0.2628205460604445</v>
+      </c>
+      <c r="R22">
+        <v>2.365384914544</v>
+      </c>
+      <c r="S22">
+        <v>0.0001335011495929654</v>
+      </c>
+      <c r="T22">
+        <v>0.0001335011495929654</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H23">
+        <v>18.355384</v>
+      </c>
+      <c r="I23">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J23">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.04638100000000001</v>
+      </c>
+      <c r="N23">
+        <v>0.139143</v>
+      </c>
+      <c r="O23">
+        <v>0.0003126212879682069</v>
+      </c>
+      <c r="P23">
+        <v>0.0003126212879682068</v>
+      </c>
+      <c r="Q23">
+        <v>0.2837803551013334</v>
+      </c>
+      <c r="R23">
+        <v>2.554023195912</v>
+      </c>
+      <c r="S23">
+        <v>0.0001441478004889885</v>
+      </c>
+      <c r="T23">
+        <v>0.0001441478004889885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.3578148846648</v>
-      </c>
-      <c r="H13">
-        <v>4.3578148846648</v>
-      </c>
-      <c r="I13">
-        <v>0.3936252359945479</v>
-      </c>
-      <c r="J13">
-        <v>0.3936252359945479</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.703944012114477</v>
-      </c>
-      <c r="N13">
-        <v>0.703944012114477</v>
-      </c>
-      <c r="O13">
-        <v>0.005322602990463877</v>
-      </c>
-      <c r="P13">
-        <v>0.005322602990463877</v>
-      </c>
-      <c r="Q13">
-        <v>3.067657693963127</v>
-      </c>
-      <c r="R13">
-        <v>3.067657693963127</v>
-      </c>
-      <c r="S13">
-        <v>0.00209511085822663</v>
-      </c>
-      <c r="T13">
-        <v>0.00209511085822663</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H24">
+        <v>18.355384</v>
+      </c>
+      <c r="I24">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J24">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.517643</v>
+      </c>
+      <c r="N24">
+        <v>1.552929</v>
+      </c>
+      <c r="O24">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="P24">
+        <v>0.003489062792258176</v>
+      </c>
+      <c r="Q24">
+        <v>3.167178679970666</v>
+      </c>
+      <c r="R24">
+        <v>28.504608119736</v>
+      </c>
+      <c r="S24">
+        <v>0.001608785922867585</v>
+      </c>
+      <c r="T24">
+        <v>0.001608785922867585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>6.118461333333333</v>
+      </c>
+      <c r="H25">
+        <v>18.355384</v>
+      </c>
+      <c r="I25">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="J25">
+        <v>0.4610940010702281</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.9747983333333333</v>
+      </c>
+      <c r="N25">
+        <v>2.924395</v>
+      </c>
+      <c r="O25">
+        <v>0.00657042130346323</v>
+      </c>
+      <c r="P25">
+        <v>0.006570421303463229</v>
+      </c>
+      <c r="Q25">
+        <v>5.964265910297778</v>
+      </c>
+      <c r="R25">
+        <v>53.67839319268001</v>
+      </c>
+      <c r="S25">
+        <v>0.003029581847530924</v>
+      </c>
+      <c r="T25">
+        <v>0.003029581847530924</v>
       </c>
     </row>
   </sheetData>
